--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -35,7 +35,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/ConceptMap/MDSRoadSafety2FHIR</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ConceptMap/MDSRoadSafety2FHIR</t>
   </si>
   <si>
     <t>Version</t>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T18:52:26+00:00</t>
+    <t>2025-10-15T05:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T05:07:35+00:00</t>
+    <t>2025-10-15T06:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T08:26:35+00:00</t>
+    <t>2025-10-15T12:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="251">
   <si>
     <t>Property</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -131,7 +131,7 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.incidentNumber</t>
+    <t>MDSRoadSafety.oneiss.encounter.incidentNumber</t>
   </si>
   <si>
     <t>equivalent</t>
@@ -140,67 +140,67 @@
     <t>Encounter.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.hospitalCaseNo</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.typeOfPatient</t>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalCaseNo</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.typeOfPatient</t>
   </si>
   <si>
     <t>Encounter.class</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.dateTimeOfConsult</t>
+    <t>MDSRoadSafety.oneiss.encounter.dateTimeOfConsult</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.serviceProvider</t>
+    <t>MDSRoadSafety.oneiss.encounter.serviceProvider</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.receivedBy</t>
+    <t>MDSRoadSafety.runreport.workflow.receivedBy</t>
   </si>
   <si>
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.crew.teamLeader</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.treatmentOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.transportOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.assistant</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.originating.organization</t>
+    <t>MDSRoadSafety.runreport.workflow.crew.teamLeader</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.treatmentOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.transportOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.assistant</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.originating.organization</t>
   </si>
   <si>
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.originating.practitioner</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.disposition</t>
+    <t>MDSRoadSafety.oneiss.encounter.originating.practitioner</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.disposition</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.disposition.text</t>
+    <t>MDSRoadSafety.oneiss.encounter.disposition.text</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition.text</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.transferDestination</t>
+    <t>MDSRoadSafety.oneiss.encounter.transferDestination</t>
   </si>
   <si>
     <t>Encounter.hospitalization.destination</t>
@@ -209,73 +209,73 @@
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.family</t>
+    <t>MDSRoadSafety.oneiss.patient.name.family</t>
   </si>
   <si>
     <t>Patient.name.family</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.given</t>
+    <t>MDSRoadSafety.oneiss.patient.name.given</t>
   </si>
   <si>
     <t>Patient.name.given</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.birthDate</t>
+    <t>MDSRoadSafety.oneiss.patient.birthDate</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.gender</t>
+    <t>MDSRoadSafety.oneiss.patient.gender</t>
   </si>
   <si>
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.telecom</t>
+    <t>MDSRoadSafety.oneiss.patient.telecom</t>
   </si>
   <si>
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.identifier</t>
+    <t>MDSRoadSafety.oneiss.patient.identifier</t>
   </si>
   <si>
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.occupation</t>
+    <t>MDSRoadSafety.oneiss.patient.occupation</t>
   </si>
   <si>
     <t>Patient.extension:occupation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.line</t>
+    <t>MDSRoadSafety.oneiss.patient.address.line</t>
   </si>
   <si>
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[barangay]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.barangay</t>
   </si>
   <si>
     <t>Patient.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[cityMunicipality]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.cityMunicipality</t>
   </si>
   <si>
     <t>Patient.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[province]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.province</t>
   </si>
   <si>
     <t>Patient.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[region]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.region</t>
   </si>
   <si>
     <t>Patient.address.extension:region</t>
@@ -284,43 +284,43 @@
     <t>http://hl7.org/fhir/StructureDefinition/Location</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.street</t>
+    <t>MDSRoadSafety.oneiss.incident.location.street</t>
   </si>
   <si>
     <t>Location.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.barangay</t>
+    <t>MDSRoadSafety.oneiss.incident.location.barangay</t>
   </si>
   <si>
     <t>Location.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.city</t>
+    <t>MDSRoadSafety.oneiss.incident.location.city</t>
   </si>
   <si>
     <t>Location.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.province</t>
+    <t>MDSRoadSafety.oneiss.incident.location.province</t>
   </si>
   <si>
     <t>Location.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.region</t>
+    <t>MDSRoadSafety.oneiss.incident.location.region</t>
   </si>
   <si>
     <t>Location.address.extension:region</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.longitude</t>
+    <t>MDSRoadSafety.oneiss.incident.location.position.longitude</t>
   </si>
   <si>
     <t>Location.position.longitude</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.latitude</t>
+    <t>MDSRoadSafety.oneiss.incident.location.position.latitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
@@ -329,22 +329,22 @@
     <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.flag</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.flag</t>
   </si>
   <si>
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.hospital</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.hospital</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.physician</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.dateTime</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.physician</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.dateTime</t>
   </si>
   <si>
     <t>ServiceRequest.occurrenceDateTime</t>
@@ -353,205 +353,229 @@
     <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.transportCoordinated</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.intervention</t>
   </si>
   <si>
     <t>Procedure.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.psychosocialSupport</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.intervention</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedCode</t>
+  </si>
+  <si>
+    <t>Procedure.usedCode</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedReference</t>
+  </si>
+  <si>
+    <t>Procedure.usedReference</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.psychosocialSupport</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.dateReceived</t>
+    <t>MDSRoadSafety.runreport.workflow.dateReceived</t>
   </si>
   <si>
     <t>Observation.valueDateTime</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.timeEnroute</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeOnScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeDepartedScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeHospitalArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeStationArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryIntent</t>
+    <t>MDSRoadSafety.runreport.workflow.timeEnroute</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeOnScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeDepartedScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeHospitalArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeStationArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryIntent</t>
   </si>
   <si>
     <t>Observation.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportOrVehicular</t>
+    <t>MDSRoadSafety.oneiss.incident.transportOrVehicular</t>
   </si>
   <si>
     <t>Observation.valueBoolean</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportModeToFacility</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.transportModeOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.triagePriority</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.urgency</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrence</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrenceOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityAtTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionVsNonCollision</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicle</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOrObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatient</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatientOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.howManyVehicles</t>
+    <t>MDSRoadSafety.oneiss.incident.transportModeToFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.transportModeOther</t>
+  </si>
+  <si>
+    <t>Observation.valueString</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.triagePriority</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.urgency</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceWorkplaceName</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityAtTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.collisionVsNonCollision</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicle</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOrObject</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatientOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.howManyVehicles</t>
   </si>
   <si>
     <t>Observation.valueInteger</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.howManyPatients</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.trafficInvestigatorPresent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactors</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactorsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessories</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessoriesOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.reportedComplaint</t>
-  </si>
-  <si>
-    <t>Observation.valueString</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.callSource</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.time</t>
+    <t>MDSRoadSafety.oneiss.incident.howManyPatients</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.collisionType</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.trafficInvestigatorPresent</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.otherRiskFactors</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.otherRiskFactorsOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.safetyAccessories</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.safetyAccessoriesOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.reportedComplaint</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.callSource</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.time</t>
   </si>
   <si>
     <t>Observation.effectiveDateTime</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.respiratoryRate</t>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRate</t>
   </si>
   <si>
     <t>Observation.valueQuantity</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.respiratoryRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.breathSounds</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRate</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseQuality</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.systolic</t>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRhythm</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.breathSounds</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRate</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRhythm</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseQuality</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.systolic</t>
   </si>
   <si>
     <t>Observation.component:bpSystolic.valueQuantity</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.diastolic</t>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.diastolic</t>
   </si>
   <si>
     <t>Observation.component:bpDiastolic.valueQuantity</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.temperature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.levelOfConsciousness</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pupils</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.eyes</t>
+    <t>MDSRoadSafety.runreport.vitals.temperature</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.levelOfConsciousness</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pupils</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.eyes</t>
   </si>
   <si>
     <t>Observation.component:gcsEyes.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.gcs.verbal</t>
+    <t>MDSRoadSafety.runreport.vitals.gcs.verbal</t>
   </si>
   <si>
     <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.gcs.motor</t>
+    <t>MDSRoadSafety.runreport.vitals.gcs.motor</t>
   </si>
   <si>
     <t>Observation.component:gcsMotor.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.vitals.gcs.total</t>
+    <t>MDSRoadSafety.runreport.vitals.gcs.total</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.remarks</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.notes</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.vehicleUsed</t>
   </si>
   <si>
     <t>MDSRoadSafety.injuries.multipleInjuries</t>
@@ -569,9 +593,6 @@
     <t>MDSRoadSafety.injuries.abrasion.details</t>
   </si>
   <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.injuries.avulsion.present</t>
   </si>
   <si>
@@ -668,100 +689,46 @@
     <t>MDSRoadSafety.injuries.otherInjury.details</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStings</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStingsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burns</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalSubstance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObjectSpecify</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowning</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.forcesOfNature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fall</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fallSpecifics</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecracker</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecrackerType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshot</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshotWeapon</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.hangingStrangulation</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.maulingAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sexualAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.other</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.otherSpecify</t>
+    <t>MDSRoadSafety.oneiss.clinical.bloodAlcoholConcentration</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.conditionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrivalAliveDetail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.medicalHistory</t>
+    <t>MDSRoadSafety.oneiss.clinical.medicalHistory</t>
   </si>
   <si>
     <t>Condition.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.initialImpression</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10NatureOfInjury</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10ExternalCause</t>
+    <t>MDSRoadSafety.oneiss.clinical.initialImpression</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.icd10NatureOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.icd10ExternalCause</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.currentMedication</t>
+    <t>MDSRoadSafety.oneiss.clinical.currentMedication</t>
   </si>
   <si>
     <t>MedicationStatement.medicationCodeableConcept</t>
@@ -770,7 +737,7 @@
     <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.knownAllergies</t>
+    <t>MDSRoadSafety.oneiss.clinical.knownAllergies</t>
   </si>
   <si>
     <t>AllergyIntolerance.code</t>
@@ -779,28 +746,34 @@
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.causeOfCrash</t>
+    <t>MDSRoadSafety.postcrash.evidence.causeOfCrash</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.partyAtFault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.trafficIncidentManagement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.roadNetworkShapeFiles</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.cctvReconstruction.link</t>
+    <t>MDSRoadSafety.postcrash.evidence.partyAtFault</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.trafficIncidentManagement</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.roadNetworkShapeFiles</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.link</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.available</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.vehicleCondition</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Claim</t>
   </si>
   <si>
-    <t>MDSRoadSafety.finance.costOfCare</t>
+    <t>MDSRoadSafety.oneiss.finance.costOfCare</t>
   </si>
   <si>
     <t>Claim.total</t>
@@ -1120,7 +1093,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1128,14 +1101,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1180,7 +1153,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1188,14 +1161,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1206,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1248,68 +1221,94 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1352,7 +1351,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1360,14 +1359,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -2060,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2122,22 +2121,35 @@
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2146,7 +2158,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2180,7 +2192,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2188,653 +2200,705 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2843,7 +2907,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2877,7 +2941,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2885,783 +2949,549 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E62" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3704,7 +3534,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -3712,53 +3542,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -19,12 +19,13 @@
     <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
     <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
     <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
+    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="258">
   <si>
     <t>Property</t>
   </si>
@@ -71,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -326,6 +327,15 @@
     <t>Location.position.latitude</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalAvailable</t>
+  </si>
+  <si>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
   </si>
   <si>
@@ -374,6 +384,9 @@
     <t>MDSRoadSafety.oneiss.clinical.psychosocialSupport</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.clinical.transportCoordination</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
@@ -476,6 +489,9 @@
     <t>MDSRoadSafety.oneiss.incident.howManyPatients</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.encounter.transferredFromAnotherFacility</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.postcrash.incident.collisionType</t>
   </si>
   <si>
@@ -500,6 +516,9 @@
     <t>MDSRoadSafety.runreport.incident.callSource</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.incident.referredByAnotherFacility</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.runreport.vitals.time</t>
   </si>
   <si>
@@ -579,6 +598,9 @@
   </si>
   <si>
     <t>MDSRoadSafety.injuries.multipleInjuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.injuries.extentOfInjury</t>
   </si>
   <si>
     <t>MDSRoadSafety.injuries.abrasion.present</t>
@@ -1059,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1115,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1101,16 +1123,55 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1153,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1161,14 +1222,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1178,6 +1239,66 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1213,7 +1334,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1221,92 +1342,92 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1315,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1351,7 +1472,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1359,14 +1480,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1960,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,45 +2133,6 @@
         <v>102</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2093,7 +2175,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2101,46 +2183,46 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2158,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2192,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2200,705 +2282,68 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E56" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2907,7 +2352,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2941,7 +2386,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2949,549 +2394,731 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E58" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3500,7 +3127,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3534,7 +3161,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -3542,55 +3169,562 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -17,15 +17,12 @@
     <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
     <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
     <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
-    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
-    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
-    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +51,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MDS Logical Model to FHIR Mapping</t>
+    <t>MDSRoadSafety Logical Model to FHIR Mapping</t>
   </si>
   <si>
     <t>Status</t>
@@ -72,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +96,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Maps elements from the MDSRoadSafety logical model to target FHIR R4 resources.</t>
+    <t>Maps elements from the logical model to FHIR R4 resources. Generated by scripts/generate-conceptmap.js</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -132,12 +129,30 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
+    <t>MDSRoadSafety.runreport.workflow.receivedBy</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.teamLeader</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.treatmentOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.transportOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.assistant</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.oneiss.encounter.incidentNumber</t>
   </si>
   <si>
-    <t>equivalent</t>
-  </si>
-  <si>
     <t>Encounter.identifier</t>
   </si>
   <si>
@@ -162,24 +177,6 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>MDSRoadSafety.runreport.workflow.receivedBy</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.workflow.crew.teamLeader</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.workflow.crew.treatmentOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.workflow.crew.transportOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.workflow.crew.assistant</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.encounter.originating.organization</t>
   </si>
   <si>
@@ -285,43 +282,43 @@
     <t>http://hl7.org/fhir/StructureDefinition/Location</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.street</t>
+    <t>MDSRoadSafety.runreport.incident.location.street</t>
   </si>
   <si>
     <t>Location.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.barangay</t>
+    <t>MDSRoadSafety.runreport.incident.location.barangay</t>
   </si>
   <si>
     <t>Location.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.city</t>
+    <t>MDSRoadSafety.runreport.incident.location.city</t>
   </si>
   <si>
     <t>Location.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.province</t>
+    <t>MDSRoadSafety.runreport.incident.location.province</t>
   </si>
   <si>
     <t>Location.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.region</t>
+    <t>MDSRoadSafety.runreport.incident.location.region</t>
   </si>
   <si>
     <t>Location.address.extension:region</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.position.longitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.longitude</t>
   </si>
   <si>
     <t>Location.position.longitude</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.location.position.latitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.latitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
@@ -387,9 +384,30 @@
     <t>MDSRoadSafety.oneiss.clinical.transportCoordination</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.given</t>
+  </si>
+  <si>
+    <t>Procedure.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.what</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.byWhom</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
+    <t>MDSRoadSafety.runreport.workflow</t>
+  </si>
+  <si>
+    <t>Observation.valueString</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.runreport.workflow.dateReceived</t>
   </si>
   <si>
@@ -411,15 +429,210 @@
     <t>MDSRoadSafety.runreport.workflow.timeStationArrival</t>
   </si>
   <si>
+    <t>MDSRoadSafety.runreport.workflow.crew</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.medicalFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.vehicleUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.reportedComplaint</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.callSource</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location.position</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.remarks</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.time</t>
+  </si>
+  <si>
+    <t>Observation.effectiveDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRate</t>
+  </si>
+  <si>
+    <t>Observation.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRhythm</t>
+  </si>
+  <si>
+    <t>Observation.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.breathSounds</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRate</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRhythm</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseQuality</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.systolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpSystolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.diastolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpDiastolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.temperature</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.levelOfConsciousness</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pupils</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.eyes</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.verbal</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.motor</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.total</t>
+  </si>
+  <si>
+    <t>Observation.valueInteger</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.cyanosis</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.notes</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.name</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.system</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.value</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.type</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address.use</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.originating</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.conditionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrivalAliveDetail</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.bloodAlcoholConcentration</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactors</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactorsOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.oneiss.incident.injuryDateTime</t>
   </si>
   <si>
     <t>MDSRoadSafety.oneiss.incident.injuryIntent</t>
   </si>
   <si>
-    <t>Observation.valueCodeableConcept</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.incident.transportOrVehicular</t>
   </si>
   <si>
@@ -432,9 +645,6 @@
     <t>MDSRoadSafety.oneiss.incident.transportModeOther</t>
   </si>
   <si>
-    <t>Observation.valueString</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.incident.triagePriority</t>
   </si>
   <si>
@@ -444,15 +654,15 @@
     <t>MDSRoadSafety.oneiss.incident.placeOfOccurrence</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceWorkplaceName</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceOther</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceWorkplaceName</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.incident.activityAtTime</t>
   </si>
   <si>
@@ -462,6 +672,12 @@
     <t>MDSRoadSafety.oneiss.incident.collisionVsNonCollision</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessories</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessoriesOther</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.oneiss.incident.patientsVehicle</t>
   </si>
   <si>
@@ -483,286 +699,208 @@
     <t>MDSRoadSafety.oneiss.incident.howManyVehicles</t>
   </si>
   <si>
-    <t>Observation.valueInteger</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.incident.howManyPatients</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.incident.referredByAnotherFacility</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.oneiss.encounter.transferredFromAnotherFacility</t>
   </si>
   <si>
+    <t>MDSRoadSafety.oneiss.injuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.multipleInjuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.extentOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.site</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.finance</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.postcrash.incident.collisionType</t>
   </si>
   <si>
     <t>MDSRoadSafety.postcrash.incident.trafficInvestigatorPresent</t>
   </si>
   <si>
-    <t>MDSRoadSafety.postcrash.incident.otherRiskFactors</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.postcrash.incident.otherRiskFactorsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.postcrash.incident.safetyAccessories</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.postcrash.incident.safetyAccessoriesOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.incident.reportedComplaint</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.incident.callSource</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.incident.referredByAnotherFacility</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.time</t>
-  </si>
-  <si>
-    <t>Observation.effectiveDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.respiratoryRate</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.respiratoryRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.breathSounds</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.pulseRate</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.pulseRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.pulseQuality</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.bloodPressure.systolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpSystolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.bloodPressure.diastolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpDiastolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.temperature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.levelOfConsciousness</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.pupils</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.gcs.eyes</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.gcs.verbal</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.gcs.motor</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.vitals.gcs.total</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.clinical.remarks</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.notes</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.runreport.workflow.vehicleUsed</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.multipleInjuries</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.extentOfInjury</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.site</t>
-  </si>
-  <si>
-    <t>Observation.bodySite</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.bloodAlcoholConcentration</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.conditionOfPatient</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.outcomeAtRelease</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.outcomeAtDischarge</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.statusOnArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.statusOnArrivalAliveDetail</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.clinical.medicalHistory</t>
+    <t>MDSRoadSafety.oneiss.clinical.initialImpression</t>
   </si>
   <si>
     <t>Condition.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.oneiss.clinical.initialImpression</t>
-  </si>
-  <si>
     <t>MDSRoadSafety.oneiss.clinical.icd10NatureOfInjury</t>
   </si>
   <si>
     <t>MDSRoadSafety.oneiss.clinical.icd10ExternalCause</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.currentMedication</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.oneiss.clinical.knownAllergies</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code</t>
+    <t>MDSRoadSafety.oneiss.clinical.finalDiagnosis</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
@@ -783,13 +921,16 @@
     <t>MDSRoadSafety.postcrash.evidence.roadNetworkShapeFiles</t>
   </si>
   <si>
+    <t>MDSRoadSafety.postcrash.evidence.vehicleCondition</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.available</t>
+  </si>
+  <si>
     <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.link</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.available</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.postcrash.evidence.vehicleCondition</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Claim</t>
@@ -1081,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1123,55 +1264,107 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1214,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1222,272 +1415,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1573,65 +1508,65 @@
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1644,27 +1579,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1690,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2240,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2345,6 +2280,45 @@
       </c>
       <c r="E7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2352,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2386,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2394,332 +2368,332 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -2732,393 +2706,1576 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E149" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3127,7 +4284,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3161,7 +4318,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -3169,562 +4326,55 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -71,7 +71,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -17,14 +17,12 @@
     <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
     <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
     <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
-    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
-    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -53,7 +51,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MDS Logical Model to FHIR Mapping</t>
+    <t>MDSRoadSafety Logical Model to FHIR Mapping</t>
   </si>
   <si>
     <t>Status</t>
@@ -71,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:14:28+00:00</t>
+    <t>2025-10-21T14:32:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +96,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Maps elements from the MDSRoadSafety logical model to target FHIR R4 resources.</t>
+    <t>Maps elements from the logical model to FHIR R4 resources. Generated by scripts/generate-conceptmap.js</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -131,76 +129,76 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.incidentNumber</t>
+    <t>MDSRoadSafety.runreport.workflow.receivedBy</t>
   </si>
   <si>
     <t>equivalent</t>
   </si>
   <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.teamLeader</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.treatmentOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.transportOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.assistant</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.incidentNumber</t>
+  </si>
+  <si>
     <t>Encounter.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.hospitalCaseNo</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.typeOfPatient</t>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalCaseNo</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.typeOfPatient</t>
   </si>
   <si>
     <t>Encounter.class</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.dateTimeOfConsult</t>
+    <t>MDSRoadSafety.oneiss.encounter.dateTimeOfConsult</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.serviceProvider</t>
+    <t>MDSRoadSafety.oneiss.encounter.serviceProvider</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.receivedBy</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.teamLeader</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.treatmentOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.transportOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.assistant</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.originating.organization</t>
+    <t>MDSRoadSafety.oneiss.encounter.originating.organization</t>
   </si>
   <si>
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.originating.practitioner</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.disposition</t>
+    <t>MDSRoadSafety.oneiss.encounter.originating.practitioner</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.disposition</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.disposition.text</t>
+    <t>MDSRoadSafety.oneiss.encounter.disposition.text</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition.text</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.transferDestination</t>
+    <t>MDSRoadSafety.oneiss.encounter.transferDestination</t>
   </si>
   <si>
     <t>Encounter.hospitalization.destination</t>
@@ -209,73 +207,73 @@
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.family</t>
+    <t>MDSRoadSafety.oneiss.patient.name.family</t>
   </si>
   <si>
     <t>Patient.name.family</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.given</t>
+    <t>MDSRoadSafety.oneiss.patient.name.given</t>
   </si>
   <si>
     <t>Patient.name.given</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.birthDate</t>
+    <t>MDSRoadSafety.oneiss.patient.birthDate</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.gender</t>
+    <t>MDSRoadSafety.oneiss.patient.gender</t>
   </si>
   <si>
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.telecom</t>
+    <t>MDSRoadSafety.oneiss.patient.telecom</t>
   </si>
   <si>
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.identifier</t>
+    <t>MDSRoadSafety.oneiss.patient.identifier</t>
   </si>
   <si>
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.occupation</t>
+    <t>MDSRoadSafety.oneiss.patient.occupation</t>
   </si>
   <si>
     <t>Patient.extension:occupation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.line</t>
+    <t>MDSRoadSafety.oneiss.patient.address.line</t>
   </si>
   <si>
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[barangay]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.barangay</t>
   </si>
   <si>
     <t>Patient.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[cityMunicipality]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.cityMunicipality</t>
   </si>
   <si>
     <t>Patient.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[province]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.province</t>
   </si>
   <si>
     <t>Patient.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[region]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.region</t>
   </si>
   <si>
     <t>Patient.address.extension:region</t>
@@ -284,67 +282,76 @@
     <t>http://hl7.org/fhir/StructureDefinition/Location</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.street</t>
+    <t>MDSRoadSafety.runreport.incident.location.street</t>
   </si>
   <si>
     <t>Location.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.barangay</t>
+    <t>MDSRoadSafety.runreport.incident.location.barangay</t>
   </si>
   <si>
     <t>Location.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.city</t>
+    <t>MDSRoadSafety.runreport.incident.location.city</t>
   </si>
   <si>
     <t>Location.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.province</t>
+    <t>MDSRoadSafety.runreport.incident.location.province</t>
   </si>
   <si>
     <t>Location.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.region</t>
+    <t>MDSRoadSafety.runreport.incident.location.region</t>
   </si>
   <si>
     <t>Location.address.extension:region</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.longitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.longitude</t>
   </si>
   <si>
     <t>Location.position.longitude</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.latitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.latitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalAvailable</t>
+  </si>
+  <si>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.flag</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.flag</t>
   </si>
   <si>
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.hospital</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.hospital</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.physician</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.dateTime</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.physician</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.dateTime</t>
   </si>
   <si>
     <t>ServiceRequest.occurrenceDateTime</t>
@@ -353,454 +360,583 @@
     <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.transportCoordinated</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.intervention</t>
   </si>
   <si>
     <t>Procedure.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.psychosocialSupport</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.intervention</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedCode</t>
+  </si>
+  <si>
+    <t>Procedure.usedCode</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedReference</t>
+  </si>
+  <si>
+    <t>Procedure.usedReference</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.psychosocialSupport</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.transportCoordination</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.given</t>
+  </si>
+  <si>
+    <t>Procedure.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.what</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.byWhom</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.dateReceived</t>
+    <t>MDSRoadSafety.runreport.workflow</t>
+  </si>
+  <si>
+    <t>Observation.valueString</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.dateReceived</t>
   </si>
   <si>
     <t>Observation.valueDateTime</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.timeEnroute</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeOnScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeDepartedScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeHospitalArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeStationArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryIntent</t>
+    <t>MDSRoadSafety.runreport.workflow.timeEnroute</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeOnScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeDepartedScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeHospitalArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeStationArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.medicalFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.vehicleUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.reportedComplaint</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.callSource</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location.position</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.remarks</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.time</t>
+  </si>
+  <si>
+    <t>Observation.effectiveDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRate</t>
+  </si>
+  <si>
+    <t>Observation.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRhythm</t>
   </si>
   <si>
     <t>Observation.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportOrVehicular</t>
+    <t>MDSRoadSafety.runreport.vitals.breathSounds</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRate</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRhythm</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseQuality</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.systolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpSystolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.diastolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpDiastolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.temperature</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.levelOfConsciousness</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pupils</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.eyes</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.verbal</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.motor</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.total</t>
+  </si>
+  <si>
+    <t>Observation.valueInteger</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.cyanosis</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.notes</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.name</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.system</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.value</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.type</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address.use</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.originating</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.conditionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrivalAliveDetail</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.bloodAlcoholConcentration</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactors</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactorsOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryIntent</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.transportOrVehicular</t>
   </si>
   <si>
     <t>Observation.valueBoolean</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportModeToFacility</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.transportModeOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.triagePriority</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.urgency</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrence</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrenceOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityAtTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionVsNonCollision</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicle</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOrObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatient</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatientOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.howManyVehicles</t>
-  </si>
-  <si>
-    <t>Observation.valueInteger</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.howManyPatients</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.trafficInvestigatorPresent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactors</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactorsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessories</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessoriesOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.reportedComplaint</t>
-  </si>
-  <si>
-    <t>Observation.valueString</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.callSource</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.time</t>
-  </si>
-  <si>
-    <t>Observation.effectiveDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.respiratoryRate</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.respiratoryRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.breathSounds</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRate</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseQuality</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.systolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpSystolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.diastolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpDiastolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.temperature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.levelOfConsciousness</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pupils</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.eyes</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.verbal</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.motor</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.total</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.multipleInjuries</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.site</t>
+    <t>MDSRoadSafety.oneiss.incident.transportModeToFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.transportModeOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.triagePriority</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.urgency</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceWorkplaceName</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityAtTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.collisionVsNonCollision</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessories</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessoriesOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicle</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOrObject</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatientOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.howManyVehicles</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.howManyPatients</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.referredByAnotherFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.transferredFromAnotherFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.multipleInjuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.extentOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.site</t>
   </si>
   <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>MDSRoadSafety.injuries.abrasion.details</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStings</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStingsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burns</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalSubstance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObjectSpecify</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowning</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.forcesOfNature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fall</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fallSpecifics</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecracker</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecrackerType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshot</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshotWeapon</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.hangingStrangulation</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.maulingAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sexualAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.other</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.otherSpecify</t>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.finance</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.collisionType</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.trafficInvestigatorPresent</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.medicalHistory</t>
+    <t>MDSRoadSafety.oneiss.clinical.initialImpression</t>
   </si>
   <si>
     <t>Condition.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.initialImpression</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10NatureOfInjury</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10ExternalCause</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.currentMedication</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.knownAllergies</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code</t>
+    <t>MDSRoadSafety.oneiss.clinical.icd10NatureOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.icd10ExternalCause</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.finalDiagnosis</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.causeOfCrash</t>
+    <t>MDSRoadSafety.postcrash.evidence.causeOfCrash</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.partyAtFault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.trafficIncidentManagement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.roadNetworkShapeFiles</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.cctvReconstruction.link</t>
+    <t>MDSRoadSafety.postcrash.evidence.partyAtFault</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.trafficIncidentManagement</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.roadNetworkShapeFiles</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.vehicleCondition</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.available</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.link</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Claim</t>
   </si>
   <si>
-    <t>MDSRoadSafety.finance.costOfCare</t>
+    <t>MDSRoadSafety.oneiss.finance.costOfCare</t>
   </si>
   <si>
     <t>Claim.total</t>
@@ -1086,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1128,16 +1264,107 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1180,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1188,186 +1415,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1453,65 +1508,65 @@
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1524,27 +1579,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1570,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1961,6 +2016,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1995,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2003,53 +2118,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2058,9 +2173,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2102,51 +2217,116 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2180,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2188,1480 +2368,1914 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E149" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3704,7 +4318,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -3712,53 +4326,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -17,14 +17,12 @@
     <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
     <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
     <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
-    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
-    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -53,7 +51,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>MDS Logical Model to FHIR Mapping</t>
+    <t>MDSRoadSafety Logical Model to FHIR Mapping</t>
   </si>
   <si>
     <t>Status</t>
@@ -71,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T01:50:39+00:00</t>
+    <t>2025-10-22T02:11:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +96,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Maps elements from the MDSRoadSafety logical model to target FHIR R4 resources.</t>
+    <t>Maps elements from the logical model to FHIR R4 resources. Generated by scripts/generate-conceptmap.js</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -131,76 +129,76 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.incidentNumber</t>
+    <t>MDSRoadSafety.runreport.workflow.receivedBy</t>
   </si>
   <si>
     <t>equivalent</t>
   </si>
   <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.teamLeader</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.treatmentOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.transportOfficer</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew.assistant</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.incidentNumber</t>
+  </si>
+  <si>
     <t>Encounter.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.hospitalCaseNo</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.typeOfPatient</t>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalCaseNo</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.typeOfPatient</t>
   </si>
   <si>
     <t>Encounter.class</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.dateTimeOfConsult</t>
+    <t>MDSRoadSafety.oneiss.encounter.dateTimeOfConsult</t>
   </si>
   <si>
     <t>Encounter.period.start</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.serviceProvider</t>
+    <t>MDSRoadSafety.oneiss.encounter.serviceProvider</t>
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.receivedBy</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.teamLeader</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.treatmentOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.transportOfficer</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.crew.assistant</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.originating.organization</t>
+    <t>MDSRoadSafety.oneiss.encounter.originating.organization</t>
   </si>
   <si>
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.originating.practitioner</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.encounter.disposition</t>
+    <t>MDSRoadSafety.oneiss.encounter.originating.practitioner</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.disposition</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.disposition.text</t>
+    <t>MDSRoadSafety.oneiss.encounter.disposition.text</t>
   </si>
   <si>
     <t>Encounter.hospitalization.dischargeDisposition.text</t>
   </si>
   <si>
-    <t>MDSRoadSafety.encounter.transferDestination</t>
+    <t>MDSRoadSafety.oneiss.encounter.transferDestination</t>
   </si>
   <si>
     <t>Encounter.hospitalization.destination</t>
@@ -209,73 +207,73 @@
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.family</t>
+    <t>MDSRoadSafety.oneiss.patient.name.family</t>
   </si>
   <si>
     <t>Patient.name.family</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.name.given</t>
+    <t>MDSRoadSafety.oneiss.patient.name.given</t>
   </si>
   <si>
     <t>Patient.name.given</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.birthDate</t>
+    <t>MDSRoadSafety.oneiss.patient.birthDate</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.gender</t>
+    <t>MDSRoadSafety.oneiss.patient.gender</t>
   </si>
   <si>
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.telecom</t>
+    <t>MDSRoadSafety.oneiss.patient.telecom</t>
   </si>
   <si>
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.identifier</t>
+    <t>MDSRoadSafety.oneiss.patient.identifier</t>
   </si>
   <si>
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.occupation</t>
+    <t>MDSRoadSafety.oneiss.patient.occupation</t>
   </si>
   <si>
     <t>Patient.extension:occupation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.line</t>
+    <t>MDSRoadSafety.oneiss.patient.address.line</t>
   </si>
   <si>
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[barangay]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.barangay</t>
   </si>
   <si>
     <t>Patient.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[cityMunicipality]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.cityMunicipality</t>
   </si>
   <si>
     <t>Patient.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[province]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.province</t>
   </si>
   <si>
     <t>Patient.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.patient.address.extension[region]</t>
+    <t>MDSRoadSafety.oneiss.patient.address.region</t>
   </si>
   <si>
     <t>Patient.address.extension:region</t>
@@ -284,67 +282,76 @@
     <t>http://hl7.org/fhir/StructureDefinition/Location</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.street</t>
+    <t>MDSRoadSafety.runreport.incident.location.street</t>
   </si>
   <si>
     <t>Location.address.line</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.barangay</t>
+    <t>MDSRoadSafety.runreport.incident.location.barangay</t>
   </si>
   <si>
     <t>Location.address.extension:barangay</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.city</t>
+    <t>MDSRoadSafety.runreport.incident.location.city</t>
   </si>
   <si>
     <t>Location.address.extension:cityMunicipality</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.province</t>
+    <t>MDSRoadSafety.runreport.incident.location.province</t>
   </si>
   <si>
     <t>Location.address.extension:province</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.region</t>
+    <t>MDSRoadSafety.runreport.incident.location.region</t>
   </si>
   <si>
     <t>Location.address.extension:region</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.longitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.longitude</t>
   </si>
   <si>
     <t>Location.position.longitude</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.location.position.latitude</t>
+    <t>MDSRoadSafety.runreport.incident.location.position.latitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/StructureDefinition/HealthcareService</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.hospitalAvailable</t>
+  </si>
+  <si>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.flag</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.flag</t>
   </si>
   <si>
     <t>ServiceRequest.status</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.hospital</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.hospital</t>
   </si>
   <si>
     <t>ServiceRequest.supportingInfo</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.physician</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.refusalToAdmit.dateTime</t>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.physician</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit.dateTime</t>
   </si>
   <si>
     <t>ServiceRequest.occurrenceDateTime</t>
@@ -353,454 +360,583 @@
     <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.transportCoordinated</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.intervention</t>
   </si>
   <si>
     <t>Procedure.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.psychosocialSupport</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.intervention</t>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedCode</t>
+  </si>
+  <si>
+    <t>Procedure.usedCode</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed.usedReference</t>
+  </si>
+  <si>
+    <t>Procedure.usedReference</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.psychosocialSupport</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.transportCoordination</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.given</t>
+  </si>
+  <si>
+    <t>Procedure.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.what</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid.byWhom</t>
+  </si>
+  <si>
+    <t>Procedure.performer</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.dateReceived</t>
+    <t>MDSRoadSafety.runreport.workflow</t>
+  </si>
+  <si>
+    <t>Observation.valueString</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.dateReceived</t>
   </si>
   <si>
     <t>Observation.valueDateTime</t>
   </si>
   <si>
-    <t>MDSRoadSafety.workflow.timeEnroute</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeOnScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeDepartedScene</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeHospitalArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.workflow.timeStationArrival</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.injuryIntent</t>
+    <t>MDSRoadSafety.runreport.workflow.timeEnroute</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeOnScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeDepartedScene</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeHospitalArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.timeStationArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.crew</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.medicalFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.vehicleUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.workflow.refusalToAdmit</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.reportedComplaint</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.callSource</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.incident.location.position</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.procedures.suppliesUsed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.clinical.remarks</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.time</t>
+  </si>
+  <si>
+    <t>Observation.effectiveDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRate</t>
+  </si>
+  <si>
+    <t>Observation.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.respiratoryRhythm</t>
   </si>
   <si>
     <t>Observation.valueCodeableConcept</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportOrVehicular</t>
+    <t>MDSRoadSafety.runreport.vitals.breathSounds</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRate</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseRhythm</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pulseQuality</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.systolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpSystolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.bloodPressure.diastolic</t>
+  </si>
+  <si>
+    <t>Observation.component:bpDiastolic.valueQuantity</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.temperature</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.levelOfConsciousness</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.pupils</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.eyes</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.verbal</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.motor</t>
+  </si>
+  <si>
+    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.gcs.total</t>
+  </si>
+  <si>
+    <t>Observation.valueInteger</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.vitals.cyanosis</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.runreport.notes</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.name</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.system</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.value</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.identifier.type</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.patient.address.use</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.originating</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.conditionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtRelease</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.outcomeAtDischarge</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrival</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.statusOnArrivalAliveDetail</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.procedures.firstAid</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.bloodAlcoholConcentration</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactors</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.otherRiskFactorsOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryDateTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.injuryIntent</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.transportOrVehicular</t>
   </si>
   <si>
     <t>Observation.valueBoolean</t>
   </si>
   <si>
-    <t>MDSRoadSafety.incident.transportModeToFacility</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.transportModeOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.triagePriority</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.urgency</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrence</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.placeOfOccurrenceOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityAtTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.activityOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionVsNonCollision</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicle</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.patientsVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOrObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherVehicleOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatient</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.positionOfPatientOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.howManyVehicles</t>
-  </si>
-  <si>
-    <t>Observation.valueInteger</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.howManyPatients</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.collisionType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.trafficInvestigatorPresent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactors</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.otherRiskFactorsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessories</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.safetyAccessoriesOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.reportedComplaint</t>
-  </si>
-  <si>
-    <t>Observation.valueString</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.callSource</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.time</t>
-  </si>
-  <si>
-    <t>Observation.effectiveDateTime</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.respiratoryRate</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.respiratoryRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.breathSounds</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRate</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseRhythm</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pulseQuality</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.systolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpSystolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.bloodPressure.diastolic</t>
-  </si>
-  <si>
-    <t>Observation.component:bpDiastolic.valueQuantity</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.temperature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.levelOfConsciousness</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.pupils</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.eyes</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsEyes.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.verbal</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsVerbal.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.motor</t>
-  </si>
-  <si>
-    <t>Observation.component:gcsMotor.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.vitals.gcs.total</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.multipleInjuries</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.abrasion.site</t>
+    <t>MDSRoadSafety.oneiss.incident.transportModeToFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.transportModeOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.triagePriority</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.urgency</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceWorkplaceName</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.placeOfOccurrenceOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityAtTime</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.activityOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.collisionVsNonCollision</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessories</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.safetyAccessoriesOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicle</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.patientsVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOrObject</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.otherVehicleOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatient</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.positionOfPatientOther</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.howManyVehicles</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.howManyPatients</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.incident.referredByAnotherFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.encounter.transferredFromAnotherFacility</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.multipleInjuries</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.extentOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.site</t>
   </si>
   <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>MDSRoadSafety.injuries.abrasion.details</t>
-  </si>
-  <si>
-    <t>Observation.note</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.avulsion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.firstDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.secondDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.thirdDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.burn.fourthDegree.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.concussion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.contusion.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.closed.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.fracture.open.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.openWound.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.traumaticAmputation.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.present</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.site</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.injuries.otherInjury.details</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStings</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.bitesStingsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burns</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.burnsOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalSubstance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.chemicalAgent</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObject</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sharpObjectSpecify</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowning</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.drowningOther</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.forcesOfNature</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fall</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.fallSpecifics</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecracker</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.firecrackerType</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshot</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.gunshotWeapon</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.hangingStrangulation</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.maulingAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.sexualAssault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.other</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.incident.externalCauses.otherSpecify</t>
+    <t>MDSRoadSafety.oneiss.injuries.abrasion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.avulsion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.firstDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.secondDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.thirdDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.burn.fourthDegree.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.concussion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.contusion.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.closed.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.fracture.open.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.openWound.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.traumaticAmputation.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.present</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.site</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.injuries.otherInjury.details</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.finance</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.collisionType</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.incident.trafficInvestigatorPresent</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.medicalHistory</t>
+    <t>MDSRoadSafety.oneiss.clinical.initialImpression</t>
   </si>
   <si>
     <t>Condition.code</t>
   </si>
   <si>
-    <t>MDSRoadSafety.clinical.initialImpression</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10NatureOfInjury</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.icd10ExternalCause</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.currentMedication</t>
-  </si>
-  <si>
-    <t>MedicationStatement.medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.clinical.knownAllergies</t>
-  </si>
-  <si>
-    <t>AllergyIntolerance.code</t>
+    <t>MDSRoadSafety.oneiss.clinical.icd10NatureOfInjury</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.icd10ExternalCause</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.oneiss.clinical.finalDiagnosis</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.causeOfCrash</t>
+    <t>MDSRoadSafety.postcrash.evidence.causeOfCrash</t>
   </si>
   <si>
     <t>DocumentReference.content.attachment.url</t>
   </si>
   <si>
-    <t>MDSRoadSafety.evidence.partyAtFault</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.trafficIncidentManagement</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.roadNetworkShapeFiles</t>
-  </si>
-  <si>
-    <t>MDSRoadSafety.evidence.cctvReconstruction.link</t>
+    <t>MDSRoadSafety.postcrash.evidence.partyAtFault</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.trafficIncidentManagement</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.roadNetworkShapeFiles</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.vehicleCondition</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.available</t>
+  </si>
+  <si>
+    <t>MDSRoadSafety.postcrash.evidence.cctvReconstruction.link</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Claim</t>
   </si>
   <si>
-    <t>MDSRoadSafety.finance.costOfCare</t>
+    <t>MDSRoadSafety.oneiss.finance.costOfCare</t>
   </si>
   <si>
     <t>Claim.total</t>
@@ -1086,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1128,16 +1264,107 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>246</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1180,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -1188,186 +1415,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1453,65 +1508,65 @@
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1524,27 +1579,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1570,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1961,6 +2016,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1995,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2003,53 +2118,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -2058,9 +2173,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2094,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2102,51 +2217,116 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2180,7 +2360,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -2188,1480 +2368,1914 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E149" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3704,7 +4318,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>33</v>
@@ -3712,53 +4326,53 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>242</v>
+        <v>291</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2"/>
     </row>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MDSRoadSafety2FHIR.xlsx
+++ b/MDSRoadSafety2FHIR.xlsx
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
